--- a/simulations/2024_07_07.xlsx
+++ b/simulations/2024_07_07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CI5"/>
+  <dimension ref="A1:CI13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1930,6 +1930,2126 @@
         <v>1.316228549888393</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>9.944718856087269</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3.827642416209065</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.655097936600904</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>121.1099412824623</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1800.089939708186</v>
+      </c>
+      <c r="G6" t="n">
+        <v>80</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.103378706611822e-06</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.537237811452144e-06</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2.720196043431133e-05</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.8420744238518562</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>6.348045444368501</v>
+      </c>
+      <c r="R6" t="n">
+        <v>17.93657273473326</v>
+      </c>
+      <c r="S6" t="n">
+        <v>21.71604504177633</v>
+      </c>
+      <c r="T6" t="n">
+        <v>21.71708875409041</v>
+      </c>
+      <c r="U6" t="n">
+        <v>21.71942814749264</v>
+      </c>
+      <c r="V6" t="n">
+        <v>21.72378837042736</v>
+      </c>
+      <c r="W6" t="n">
+        <v>21.73669787621398</v>
+      </c>
+      <c r="X6" t="n">
+        <v>21.76312883687729</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>22.0206665435948</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>23.4184149213339</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>27.37730951685729</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>36.87157591638967</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>52.28143296957239</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>60.85601885836775</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>67.37250550586695</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>75.5578860819186</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>85.2280690322102</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>98.21242430932342</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>5.504471769195922</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>5.683586482124138</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>6.89544514491733</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>28.95224715333944</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>33.96077425189937</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>40.20136621446203</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>45.22635832876266</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>54.74042419592273</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>71.12749995162079</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>79.3103144911467</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>87.61040405742469</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>103.3992422340897</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>146.6761787744147</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>279.0353704039292</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>10.33992422340897</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>13.06077932352067</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>16.4976021924332</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>20.83879310399451</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>26.32232811567398</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>33.2488044759362</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>41.99791880949773</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>53.04928138410902</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>67.00870745847401</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>84.64142695437879</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>106.9140329458399</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>135.0474685038707</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>170.5839565377053</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>215.4715416026011</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>272.1708780997771</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>343.7901188001222</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>6.464342447454641</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>4.103859392350827</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>32.62749449413305</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>7.600250529973664</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>15.33497498261597</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>5.886383467038158</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>3.504743381849281</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>3.760075206415735</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>15.27276173495716</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>5.870476712999519</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>5.935460812727825</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>3.614966444528051</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>4.752044591790607</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>9.317108379964964</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>3.618072394099158</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>3.014783299836765</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>2.519965915317059</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>2.048787482297399</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>2.308031229937967</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2.092470409472024</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.724408952275494</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.104013842367686</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>135.8762173529115</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1800.084096049221</v>
+      </c>
+      <c r="G7" t="n">
+        <v>30</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.5945019381923667</v>
+      </c>
+      <c r="R7" t="n">
+        <v>12.25010931699738</v>
+      </c>
+      <c r="S7" t="n">
+        <v>12.59081308264352</v>
+      </c>
+      <c r="T7" t="n">
+        <v>12.59081308264352</v>
+      </c>
+      <c r="U7" t="n">
+        <v>12.59081308264352</v>
+      </c>
+      <c r="V7" t="n">
+        <v>68.31179044309836</v>
+      </c>
+      <c r="W7" t="n">
+        <v>90.41842751641902</v>
+      </c>
+      <c r="X7" t="n">
+        <v>90.41842751641902</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>90.41842751641902</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>90.42205789287178</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>90.42801004739704</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>90.43212816191311</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>90.48277998594664</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>90.53383532873593</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>90.73168530153721</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>91.05393168890366</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>92.03915685880317</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>98.93067952561209</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>6.014896148433214</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>6.192980024409422</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>11.03876452411974</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>11.23216798443524</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>11.42557144475074</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>11.81237836538175</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>12.19918528601275</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>12.58599220664375</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>13.10508689173309</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>13.69028935566615</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>14.27549181959921</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>15.44589674746533</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>184.6234644213565</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>394.0489923344582</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>1.544589674746533</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>1.613223129597912</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>1.684906294803991</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>1.759774683479585</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>1.837969830230787</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>1.919639558718414</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>2.004938261110583</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>2.094027189952682</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>2.187074763006517</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>2.284256881634904</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>2.385757263333602</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>2.491767789039224</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>2.602488865869683</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>2.718129805982917</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>2.838909222270113</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>2.965055441631455</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>2.282437953517771</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>1.294681739165242</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>7.960843141196833</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>9.581572483580985</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>9.907809726657945</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>9.581572483580985</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>9.581572483580985</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>9.581572483580985</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>9.581572483580985</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>9.581572483580985</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>9.581572483580985</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>9.581572483580985</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>9.581572483580985</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>9.581572483580985</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>9.581572483580985</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>9.581572483580985</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>9.581572483580985</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>9.581572483580985</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>9.581572483580985</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.382738277859203</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.019293852721947</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.16489483991786</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>176.2318054295588</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1800.567095246592</v>
+      </c>
+      <c r="G8" t="n">
+        <v>220</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2.867814771512438e-06</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.867814771512438e-06</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.867814771512438e-06</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.799142077231839e-05</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4.985137603031728e-05</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.0002123061501320226</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.0005027335303872646</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.0008782195109394732</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.002333816181943644</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.006534966684118568</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.01306058361876538</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.03251150582456019</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.08710183268333223</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.2150401995756652</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.5111730630410494</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1.14257997841795</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>2.780469446303317</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>7.395794722395424</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>27.33711469616597</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>63.31237055717709</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>84.95204371149771</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>98.03833155017749</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>82.32342425987453</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>83.93627261578833</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>90.38766603944354</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>94.41978692922805</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>97.73342575217981</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>103.0995337976437</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>108.4656418431076</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>113.8317498885714</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>122.7711435869731</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>128.1257613405369</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>133.4803790941007</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>149.5149840311933</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>310.5764924496187</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>859.751116193312</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>14.95149840311933</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>19.5953574756454</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>25.68157546792922</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>33.65814169681133</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>44.11218867383512</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>57.81320927115755</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>75.76969691855626</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>99.30337795646345</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>130.1465001788756</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>170.5693387010063</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>223.5473044984803</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>292.9799560056653</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>383.9780345983332</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>503.2396518318398</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>659.5433185149458</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>864.3941060969175</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>3.537283557851001</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>3.080913984122589</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>15.04795628850229</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>15.04795628850229</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>22.12694496361979</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>24.26834792709617</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>13.14865984112188</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>5.401668975127851</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>15.04795628850229</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>25.82514369525308</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>11.33158022085765</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>3.469225446051354</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>4.899149381903356</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>6.720171169443731</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>7.812521523817523</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>4.485421616427615</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>2.401578550938027</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>5.723879038621462</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>1.681645690758742</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.687524092979461</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9712630803130438</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.540454833869119</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>40.95573506753649</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1800.003322891689</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.08149649547762765</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.3720213794573583</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.228136987053619</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.576699000424989</v>
+      </c>
+      <c r="O9" t="n">
+        <v>9.435788134138008</v>
+      </c>
+      <c r="P9" t="n">
+        <v>22.03649369418727</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>43.02983090725306</v>
+      </c>
+      <c r="R9" t="n">
+        <v>61.77081695790238</v>
+      </c>
+      <c r="S9" t="n">
+        <v>64.02310950362117</v>
+      </c>
+      <c r="T9" t="n">
+        <v>64.0342625300527</v>
+      </c>
+      <c r="U9" t="n">
+        <v>64.07046917791897</v>
+      </c>
+      <c r="V9" t="n">
+        <v>64.16710662243112</v>
+      </c>
+      <c r="W9" t="n">
+        <v>64.41762358522485</v>
+      </c>
+      <c r="X9" t="n">
+        <v>65.02575685283104</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>66.51325668947527</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>71.31327477083815</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>82.21607216641773</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>97.06422442869402</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>100</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>100</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>3.624947347271807</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>3.739254372277233</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.196482472298934</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>4.434916877403785</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>4.640824381384877</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>5.05263938934706</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>5.56340622766048</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>6.11718598430316</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>25.5809569197888</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>28.62255776777164</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>31.08674857665867</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>35.56045344805478</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>16.77372234922239</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>12.94927035161909</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>3.556045344805478</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>4.037048986274281</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>4.583114931699422</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>5.203043745216298</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>5.906826387309525</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>6.705805232157556</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>7.612856864769621</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>8.642599603929005</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>9.811629095445259</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>11.13878577260754</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>12.64545849431273</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>14.35592925439235</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>16.29776451757822</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>18.5022594889957</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>21.00494247716622</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>23.84614747898612</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>1.947370768159985</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>5.231745369867014</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>3.183506340009686</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>8.509737484504356</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>5.910247368568008</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>4.743842798238219</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>2.020359739462791</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>9.396303838825347</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>2.90510968396471</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>4.719381710796782</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>1.908927859589902</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>7.646619376752056</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>5.562420648279513</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>4.489589464220202</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>3.308227672615118</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>3.220427357770951</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>2.76653122933908</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>1.080551940900307</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>1.399883411791592</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.098257841401211</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9835131322953738</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.046634794654263</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>111.8304405909838</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1800.170718922719</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>98.23496382600861</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>98.6210580458354</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>100.1654349251425</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>101.1306704747095</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>102.0959060242765</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>104.0263771234104</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>105.9568482225443</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>107.8873193216783</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>109.8177904208122</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>110.7830259703792</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>111.7482615199461</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>113.6787326190801</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>125.0604744277356</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>219.6847877306571</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>11.36787326190801</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>14.49596545559752</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>18.48481326705146</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>23.57127040378127</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>30.05736549357095</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>38.32823623580255</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>48.8749984845381</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>62.32390820614506</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>79.47354791871365</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>101.3422457060439</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>129.2285424988033</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>164.7882981082295</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>210.1330144898771</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>267.9552145723492</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>341.6883215177623</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>435.7105318810743</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1.411965411490725</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.034085964920318</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.146301056591001</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>4.167496184124371</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1800.009598680334</v>
+      </c>
+      <c r="G11" t="n">
+        <v>10</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.4549964927164366</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.046516024933117</v>
+      </c>
+      <c r="M11" t="n">
+        <v>11.42591087963692</v>
+      </c>
+      <c r="N11" t="n">
+        <v>32.82301517768168</v>
+      </c>
+      <c r="O11" t="n">
+        <v>70.98056043219792</v>
+      </c>
+      <c r="P11" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>100</v>
+      </c>
+      <c r="R11" t="n">
+        <v>100</v>
+      </c>
+      <c r="S11" t="n">
+        <v>100</v>
+      </c>
+      <c r="T11" t="n">
+        <v>100</v>
+      </c>
+      <c r="U11" t="n">
+        <v>100</v>
+      </c>
+      <c r="V11" t="n">
+        <v>100</v>
+      </c>
+      <c r="W11" t="n">
+        <v>100</v>
+      </c>
+      <c r="X11" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>2.422200136402624</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>2.506448558121605</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>2.693293372553859</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>2.810071381574018</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>2.926849390594177</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>3.105620127712587</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>3.262841470010604</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>3.420062812308621</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3.577284154606637</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>3.692450971504594</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>3.816535825225947</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4.064705532668654</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>0.4632836704178445</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>2.147010145549032</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>0.0583035911583849</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>0.9173007372505566</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>0.7842513910593141</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>0.3559590102940859</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>0.4818303988414812</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>1.007781335170662</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>0.4571174657578929</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>0.514669774999696</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>0.7780367405660584</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>0.9011042627737069</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>0.8187180082526169</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>0.2944259780970384</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>0.7855467089908075</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>1.246289458819803</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>0.6658140799251342</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>0.7458074858286778</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>1.612446531009965</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12.34428354029162</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.104907589100062</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.163445406522547</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>180.650542317124</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1800.020321147031</v>
+      </c>
+      <c r="G12" t="n">
+        <v>240</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3.22539819260047</v>
+      </c>
+      <c r="S12" t="n">
+        <v>30.92207125970226</v>
+      </c>
+      <c r="T12" t="n">
+        <v>57.81400016554554</v>
+      </c>
+      <c r="U12" t="n">
+        <v>57.8141396068954</v>
+      </c>
+      <c r="V12" t="n">
+        <v>57.81442127176825</v>
+      </c>
+      <c r="W12" t="n">
+        <v>57.81467175456936</v>
+      </c>
+      <c r="X12" t="n">
+        <v>57.81643263427148</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>57.81982670215902</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>57.82858292234408</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>57.84841923239645</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>57.8980662571265</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>58.02499516651704</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>58.26286477047681</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>58.8950901766354</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>59.93540573545629</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>63.91078406421597</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>70.57804278425542</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>81.83133817651648</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>91.69173150101986</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>6.519991703115177</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>6.609957569471653</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>6.969821034897561</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>7.194735700788753</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>7.419650366679944</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>7.966005377868905</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>8.522164779172645</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>80.48462626360262</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>113.9355100220117</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>124.7155462780979</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>135.0122792806928</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>161.8304962702637</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>326.3461843947101</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>926.0569299438657</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>16.18304962702637</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>21.37796700965648</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>28.24050373686814</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>37.30598194635715</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>49.28156742349485</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>65.10143309479685</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>85.99963054291494</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>113.6063539914451</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>150.0751059714038</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>198.2506844117547</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>261.891095230799</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>345.9607010422042</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>457.0174734659619</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>603.7245572228491</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>797.5260513120652</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>1053.539722563637</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>3.325135986174089</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>2.99145300001048</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>18.16866182348352</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>18.16866182348352</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>41.97500483348296</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>16.46587099858522</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>16.84150954239876</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>12.32457228700859</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>14.27907280465987</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>5.368903160579727</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>11.59873841198758</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>5.555863478194027</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>4.672721860445378</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>2.866488816428785</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>6.732097977431621</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>6.532331671213853</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>1.959627149788759</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>3.572263183656517</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>1.990678489381949</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1.654321257880671</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.026299606412432</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.230632301074449</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>156.5050937936301</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1800.931828917617</v>
+      </c>
+      <c r="G13" t="n">
+        <v>170</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.0003863017757425004</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.002347215012290388</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.00750964058257938</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.01830785611552757</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.054309151534409</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.1453620456740211</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.312116225152318</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.8354488520116794</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>2.328668215582741</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.214903515097271</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>15.44998072417765</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>32.15404412682665</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>56.171617422921</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>78.19857009248472</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>91.73114712122123</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>60.2420703287935</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>62.65872826807372</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>70.476346019063</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>74.48611595196726</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>78.49588588487151</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>85.4766540627901</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>92.17223582243378</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>99.65973756366549</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>108.4238690715222</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>112.8059348254506</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>118.6941387834445</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>135.8190630025918</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>244.9384438335295</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>602.1508565979378</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>13.58190630025918</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>17.63018229911683</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>22.88510324166801</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>29.70632642908289</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>38.56071002137673</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>50.05426574377708</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>64.97363554145481</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>84.33993092783787</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>109.4786198992058</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>142.1102446158009</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>184.4681787490204</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>239.4514840430933</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>310.8233279000932</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>403.4685420847176</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>523.727950381805</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>679.8323472602547</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>2.873850677157272</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>3.944344873896611</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>9.828780639509723</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>13.39115297085137</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>8.763830796701093</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>10.54833143332198</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>8.008481915067179</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>13.44600435785495</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>8.268852878778773</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>5.932320065554521</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>4.313143737338649</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>8.711646740785383</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>7.37395025479222</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>2.060182258961632</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>2.663341952168906</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>3.8351672376495</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>2.251935657227378</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>5.253750844483648</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>1.494759558338991</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
